--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>826.5501353333334</v>
+        <v>808.7379963333333</v>
       </c>
       <c r="H2">
-        <v>2479.650406</v>
+        <v>2426.213989</v>
       </c>
       <c r="I2">
-        <v>0.2851537905755522</v>
+        <v>0.2987634987814484</v>
       </c>
       <c r="J2">
-        <v>0.2851537905755522</v>
+        <v>0.2987634987814484</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N2">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O2">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P2">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q2">
-        <v>26306.95279797661</v>
+        <v>13162.58641433463</v>
       </c>
       <c r="R2">
-        <v>236762.5751817895</v>
+        <v>118463.2777290117</v>
       </c>
       <c r="S2">
-        <v>0.03261896821156791</v>
+        <v>0.01980371935624206</v>
       </c>
       <c r="T2">
-        <v>0.03261896821156791</v>
+        <v>0.01980371935624206</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>826.5501353333334</v>
+        <v>808.7379963333333</v>
       </c>
       <c r="H3">
-        <v>2479.650406</v>
+        <v>2426.213989</v>
       </c>
       <c r="I3">
-        <v>0.2851537905755522</v>
+        <v>0.2987634987814484</v>
       </c>
       <c r="J3">
-        <v>0.2851537905755522</v>
+        <v>0.2987634987814484</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P3">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q3">
-        <v>70639.60161743348</v>
+        <v>69117.31960557835</v>
       </c>
       <c r="R3">
-        <v>635756.4145569013</v>
+        <v>622055.8764502051</v>
       </c>
       <c r="S3">
-        <v>0.08758866666663538</v>
+        <v>0.1039902004847543</v>
       </c>
       <c r="T3">
-        <v>0.08758866666663538</v>
+        <v>0.1039902004847543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>826.5501353333334</v>
+        <v>808.7379963333333</v>
       </c>
       <c r="H4">
-        <v>2479.650406</v>
+        <v>2426.213989</v>
       </c>
       <c r="I4">
-        <v>0.2851537905755522</v>
+        <v>0.2987634987814484</v>
       </c>
       <c r="J4">
-        <v>0.2851537905755522</v>
+        <v>0.2987634987814484</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N4">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P4">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q4">
-        <v>31983.87435607463</v>
+        <v>34463.16577244778</v>
       </c>
       <c r="R4">
-        <v>287854.8692046716</v>
+        <v>310168.4919520301</v>
       </c>
       <c r="S4">
-        <v>0.03965799417801913</v>
+        <v>0.05185142506201761</v>
       </c>
       <c r="T4">
-        <v>0.03965799417801913</v>
+        <v>0.05185142506201761</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>826.5501353333334</v>
+        <v>808.7379963333333</v>
       </c>
       <c r="H5">
-        <v>2479.650406</v>
+        <v>2426.213989</v>
       </c>
       <c r="I5">
-        <v>0.2851537905755522</v>
+        <v>0.2987634987814484</v>
       </c>
       <c r="J5">
-        <v>0.2851537905755522</v>
+        <v>0.2987634987814484</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N5">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P5">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q5">
-        <v>101043.9609817398</v>
+        <v>81830.75665973066</v>
       </c>
       <c r="R5">
-        <v>909395.6488356579</v>
+        <v>736476.8099375759</v>
       </c>
       <c r="S5">
-        <v>0.1252881615193298</v>
+        <v>0.1231181538784345</v>
       </c>
       <c r="T5">
-        <v>0.1252881615193298</v>
+        <v>0.1231181538784345</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2933.163574</v>
       </c>
       <c r="I6">
-        <v>0.3373067064132887</v>
+        <v>0.3611891679133081</v>
       </c>
       <c r="J6">
-        <v>0.3373067064132887</v>
+        <v>0.361189167913308</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N6">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O6">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P6">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q6">
-        <v>31118.33648132509</v>
+        <v>15912.86637748984</v>
       </c>
       <c r="R6">
-        <v>280065.0283319258</v>
+        <v>143215.7973974086</v>
       </c>
       <c r="S6">
-        <v>0.03858478160797434</v>
+        <v>0.02394164262048031</v>
       </c>
       <c r="T6">
-        <v>0.03858478160797435</v>
+        <v>0.02394164262048031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2933.163574</v>
       </c>
       <c r="I7">
-        <v>0.3373067064132887</v>
+        <v>0.3611891679133081</v>
       </c>
       <c r="J7">
-        <v>0.3373067064132887</v>
+        <v>0.361189167913308</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P7">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q7">
         <v>83559.1605351998</v>
@@ -883,10 +883,10 @@
         <v>752032.4448167982</v>
       </c>
       <c r="S7">
-        <v>0.1036081077962257</v>
+        <v>0.1257186173592862</v>
       </c>
       <c r="T7">
-        <v>0.1036081077962257</v>
+        <v>0.1257186173592862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2933.163574</v>
       </c>
       <c r="I8">
-        <v>0.3373067064132887</v>
+        <v>0.3611891679133081</v>
       </c>
       <c r="J8">
-        <v>0.3373067064132887</v>
+        <v>0.361189167913308</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N8">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P8">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q8">
-        <v>37833.53290029498</v>
+        <v>41664.13306772317</v>
       </c>
       <c r="R8">
-        <v>340501.7961026548</v>
+        <v>374977.1976095085</v>
       </c>
       <c r="S8">
-        <v>0.04691120315162273</v>
+        <v>0.06268561303390488</v>
       </c>
       <c r="T8">
-        <v>0.04691120315162273</v>
+        <v>0.06268561303390488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2933.163574</v>
       </c>
       <c r="I9">
-        <v>0.3373067064132887</v>
+        <v>0.3611891679133081</v>
       </c>
       <c r="J9">
-        <v>0.3373067064132887</v>
+        <v>0.361189167913308</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N9">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P9">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q9">
-        <v>119524.2946373289</v>
+        <v>98929.02924284471</v>
       </c>
       <c r="R9">
-        <v>1075718.651735961</v>
+        <v>890361.2631856024</v>
       </c>
       <c r="S9">
-        <v>0.1482026138574659</v>
+        <v>0.1488432948996367</v>
       </c>
       <c r="T9">
-        <v>0.1482026138574659</v>
+        <v>0.1488432948996367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.2766776666667</v>
+        <v>480.4688006666667</v>
       </c>
       <c r="H10">
-        <v>1551.830033</v>
+        <v>1441.406402</v>
       </c>
       <c r="I10">
-        <v>0.1784566950116009</v>
+        <v>0.1774944921511204</v>
       </c>
       <c r="J10">
-        <v>0.1784566950116009</v>
+        <v>0.1774944921511204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N10">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O10">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P10">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q10">
-        <v>16463.57862779044</v>
+        <v>7819.852828529776</v>
       </c>
       <c r="R10">
-        <v>148172.207650114</v>
+        <v>70378.67545676799</v>
       </c>
       <c r="S10">
-        <v>0.02041380284644181</v>
+        <v>0.01176532984844587</v>
       </c>
       <c r="T10">
-        <v>0.02041380284644181</v>
+        <v>0.01176532984844587</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.2766776666667</v>
+        <v>480.4688006666667</v>
       </c>
       <c r="H11">
-        <v>1551.830033</v>
+        <v>1441.406402</v>
       </c>
       <c r="I11">
-        <v>0.1784566950116009</v>
+        <v>0.1774944921511204</v>
       </c>
       <c r="J11">
-        <v>0.1784566950116009</v>
+        <v>0.1774944921511204</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P11">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q11">
-        <v>44208.10895110053</v>
+        <v>41062.39079497813</v>
       </c>
       <c r="R11">
-        <v>397872.9805599047</v>
+        <v>369561.5171548032</v>
       </c>
       <c r="S11">
-        <v>0.05481527684500166</v>
+        <v>0.06178026398478091</v>
       </c>
       <c r="T11">
-        <v>0.05481527684500166</v>
+        <v>0.0617802639847809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>517.2766776666667</v>
+        <v>480.4688006666667</v>
       </c>
       <c r="H12">
-        <v>1551.830033</v>
+        <v>1441.406402</v>
       </c>
       <c r="I12">
-        <v>0.1784566950116009</v>
+        <v>0.1774944921511204</v>
       </c>
       <c r="J12">
-        <v>0.1784566950116009</v>
+        <v>0.1774944921511204</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N12">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P12">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q12">
-        <v>20016.34451266077</v>
+        <v>20474.46268252207</v>
       </c>
       <c r="R12">
-        <v>180147.1006139469</v>
+        <v>184270.1641426987</v>
       </c>
       <c r="S12">
-        <v>0.02481900927045005</v>
+        <v>0.03080477500173849</v>
       </c>
       <c r="T12">
-        <v>0.02481900927045005</v>
+        <v>0.03080477500173849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>517.2766776666667</v>
+        <v>480.4688006666667</v>
       </c>
       <c r="H13">
-        <v>1551.830033</v>
+        <v>1441.406402</v>
       </c>
       <c r="I13">
-        <v>0.1784566950116009</v>
+        <v>0.1774944921511204</v>
       </c>
       <c r="J13">
-        <v>0.1784566950116009</v>
+        <v>0.1774944921511204</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N13">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P13">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q13">
-        <v>63235.95169921059</v>
+        <v>48615.40534536912</v>
       </c>
       <c r="R13">
-        <v>569123.5652928953</v>
+        <v>437538.648108322</v>
       </c>
       <c r="S13">
-        <v>0.07840860604970733</v>
+        <v>0.07314412331615512</v>
       </c>
       <c r="T13">
-        <v>0.07840860604970734</v>
+        <v>0.07314412331615511</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>577.0637716666666</v>
+        <v>440.0224913333333</v>
       </c>
       <c r="H14">
-        <v>1731.191315</v>
+        <v>1320.067474</v>
       </c>
       <c r="I14">
-        <v>0.1990828079995583</v>
+        <v>0.1625528411541232</v>
       </c>
       <c r="J14">
-        <v>0.1990828079995583</v>
+        <v>0.1625528411541232</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.82741333333334</v>
+        <v>16.27546433333333</v>
       </c>
       <c r="N14">
-        <v>95.48224000000002</v>
+        <v>48.826393</v>
       </c>
       <c r="O14">
-        <v>0.114390792932228</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="P14">
-        <v>0.1143907929322281</v>
+        <v>0.06628560529319844</v>
       </c>
       <c r="Q14">
-        <v>18366.44718052729</v>
+        <v>7161.570363560142</v>
       </c>
       <c r="R14">
-        <v>165298.0246247456</v>
+        <v>64454.13327204128</v>
       </c>
       <c r="S14">
-        <v>0.02277324026624399</v>
+        <v>0.0107749134680302</v>
       </c>
       <c r="T14">
-        <v>0.02277324026624399</v>
+        <v>0.0107749134680302</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>577.0637716666666</v>
+        <v>440.0224913333333</v>
       </c>
       <c r="H15">
-        <v>1731.191315</v>
+        <v>1320.067474</v>
       </c>
       <c r="I15">
-        <v>0.1990828079995583</v>
+        <v>0.1625528411541232</v>
       </c>
       <c r="J15">
-        <v>0.1990828079995583</v>
+        <v>0.1625528411541232</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="P15">
-        <v>0.307162904935779</v>
+        <v>0.3480686258826592</v>
       </c>
       <c r="Q15">
-        <v>49317.70402765428</v>
+        <v>37605.7206474983</v>
       </c>
       <c r="R15">
-        <v>443859.3362488886</v>
+        <v>338451.4858274846</v>
       </c>
       <c r="S15">
-        <v>0.06115085362791627</v>
+        <v>0.05657954405383785</v>
       </c>
       <c r="T15">
-        <v>0.06115085362791627</v>
+        <v>0.05657954405383784</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>577.0637716666666</v>
+        <v>440.0224913333333</v>
       </c>
       <c r="H16">
-        <v>1731.191315</v>
+        <v>1320.067474</v>
       </c>
       <c r="I16">
-        <v>0.1990828079995583</v>
+        <v>0.1625528411541232</v>
       </c>
       <c r="J16">
-        <v>0.1990828079995583</v>
+        <v>0.1625528411541232</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>38.69562533333333</v>
+        <v>42.61351133333333</v>
       </c>
       <c r="N16">
-        <v>116.086876</v>
+        <v>127.840534</v>
       </c>
       <c r="O16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="P16">
-        <v>0.1390758092255191</v>
+        <v>0.17355341356458</v>
       </c>
       <c r="Q16">
-        <v>22329.84350185355</v>
+        <v>18750.90342135457</v>
       </c>
       <c r="R16">
-        <v>200968.5915166819</v>
+        <v>168758.1307921911</v>
       </c>
       <c r="S16">
-        <v>0.02768760262542722</v>
+        <v>0.02821160046691903</v>
       </c>
       <c r="T16">
-        <v>0.02768760262542722</v>
+        <v>0.02821160046691903</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>577.0637716666666</v>
+        <v>440.0224913333333</v>
       </c>
       <c r="H17">
-        <v>1731.191315</v>
+        <v>1320.067474</v>
       </c>
       <c r="I17">
-        <v>0.1990828079995583</v>
+        <v>0.1625528411541232</v>
       </c>
       <c r="J17">
-        <v>0.1990828079995583</v>
+        <v>0.1625528411541232</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>122.2478306666667</v>
+        <v>101.183272</v>
       </c>
       <c r="N17">
-        <v>366.743492</v>
+        <v>303.549816</v>
       </c>
       <c r="O17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="P17">
-        <v>0.4393704929064738</v>
+        <v>0.4120923552595624</v>
       </c>
       <c r="Q17">
-        <v>70544.79424257466</v>
+        <v>44522.9154266983</v>
       </c>
       <c r="R17">
-        <v>634903.148183172</v>
+        <v>400706.2388402847</v>
       </c>
       <c r="S17">
-        <v>0.0874711114799708</v>
+        <v>0.06698678316533617</v>
       </c>
       <c r="T17">
-        <v>0.08747111147997082</v>
+        <v>0.06698678316533616</v>
       </c>
     </row>
   </sheetData>
